--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H2">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I2">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J2">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.251791</v>
+        <v>51.196146</v>
       </c>
       <c r="N2">
-        <v>104.503582</v>
+        <v>102.392292</v>
       </c>
       <c r="O2">
-        <v>0.5844836378714965</v>
+        <v>0.8805216284043814</v>
       </c>
       <c r="P2">
-        <v>0.4905863370482637</v>
+        <v>0.8725157132608572</v>
       </c>
       <c r="Q2">
-        <v>1039.415199345712</v>
+        <v>1591.392572592996</v>
       </c>
       <c r="R2">
-        <v>4157.660797382848</v>
+        <v>6365.570290371984</v>
       </c>
       <c r="S2">
-        <v>0.02126794859254413</v>
+        <v>0.03589678911585336</v>
       </c>
       <c r="T2">
-        <v>0.01278218644272256</v>
+        <v>0.02546626419972307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H3">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I3">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J3">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.809217</v>
       </c>
       <c r="O3">
-        <v>0.01047454604143267</v>
+        <v>0.01610522484369085</v>
       </c>
       <c r="P3">
-        <v>0.01318771521155813</v>
+        <v>0.02393818837905812</v>
       </c>
       <c r="Q3">
-        <v>18.62738604858134</v>
+        <v>29.10744537034734</v>
       </c>
       <c r="R3">
-        <v>111.764316291488</v>
+        <v>174.644672222084</v>
       </c>
       <c r="S3">
-        <v>0.000381143444067471</v>
+        <v>0.0006565720150736231</v>
       </c>
       <c r="T3">
-        <v>0.0003436048292781556</v>
+        <v>0.0006986879668281423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H4">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I4">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J4">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01428866666666667</v>
+        <v>0.02709666666666667</v>
       </c>
       <c r="N4">
-        <v>0.042866</v>
+        <v>0.08129</v>
       </c>
       <c r="O4">
-        <v>0.0001598316864137063</v>
+        <v>0.0004660351007215281</v>
       </c>
       <c r="P4">
-        <v>0.0002012320871825319</v>
+        <v>0.0006926966956748569</v>
       </c>
       <c r="Q4">
-        <v>0.2842363300373333</v>
+        <v>0.8422789105133334</v>
       </c>
       <c r="R4">
-        <v>1.705417980224</v>
+        <v>5.05367346308</v>
       </c>
       <c r="S4">
-        <v>5.815889222297961E-06</v>
+        <v>1.899915140244944E-05</v>
       </c>
       <c r="T4">
-        <v>5.24308539063996E-06</v>
+        <v>2.021785601591465E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H5">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I5">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J5">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.925121</v>
+        <v>5.8798265</v>
       </c>
       <c r="N5">
-        <v>5.850242</v>
+        <v>11.759653</v>
       </c>
       <c r="O5">
-        <v>0.03272012940751274</v>
+        <v>0.1011270341426723</v>
       </c>
       <c r="P5">
-        <v>0.02746364037192437</v>
+        <v>0.1002075627430547</v>
       </c>
       <c r="Q5">
-        <v>58.18777058427199</v>
+        <v>182.769855766789</v>
       </c>
       <c r="R5">
-        <v>232.751082337088</v>
+        <v>731.0794230671561</v>
       </c>
       <c r="S5">
-        <v>0.001190606520166386</v>
+        <v>0.004122710563180012</v>
       </c>
       <c r="T5">
-        <v>0.0007155628787829119</v>
+        <v>0.002924775140252413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H6">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I6">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J6">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.198649</v>
+        <v>0.07041833333333333</v>
       </c>
       <c r="N6">
-        <v>99.59594700000001</v>
+        <v>0.211255</v>
       </c>
       <c r="O6">
-        <v>0.3713569768343237</v>
+        <v>0.001211123695447489</v>
       </c>
       <c r="P6">
-        <v>0.467547713566249</v>
+        <v>0.001800167799788312</v>
       </c>
       <c r="Q6">
-        <v>660.401867724368</v>
+        <v>2.188899387876667</v>
       </c>
       <c r="R6">
-        <v>3962.411206346208</v>
+        <v>13.13339632726</v>
       </c>
       <c r="S6">
-        <v>0.0135127839019703</v>
+        <v>4.937465530230603E-05</v>
       </c>
       <c r="T6">
-        <v>0.01218191701307917</v>
+        <v>5.254180308330727E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.892432</v>
+        <v>31.084226</v>
       </c>
       <c r="H7">
-        <v>39.784864</v>
+        <v>62.168452</v>
       </c>
       <c r="I7">
-        <v>0.03638758592113072</v>
+        <v>0.04076764040527087</v>
       </c>
       <c r="J7">
-        <v>0.02605491730493311</v>
+        <v>0.02918716971244894</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.07195466666666667</v>
+        <v>0.03308066666666667</v>
       </c>
       <c r="N7">
-        <v>0.215864</v>
+        <v>0.099242</v>
       </c>
       <c r="O7">
-        <v>0.0008048781588207042</v>
+        <v>0.0005689538130865529</v>
       </c>
       <c r="P7">
-        <v>0.001013361714822238</v>
+        <v>0.0008456711215667874</v>
       </c>
       <c r="Q7">
-        <v>1.431353313749333</v>
+        <v>1.028286918897333</v>
       </c>
       <c r="R7">
-        <v>8.588119882496001</v>
+        <v>6.169721513384</v>
       </c>
       <c r="S7">
-        <v>2.928757316012987E-05</v>
+        <v>2.319490445912028E-05</v>
       </c>
       <c r="T7">
-        <v>2.640305567967864E-05</v>
+        <v>2.468274654608686E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>630.862304</v>
       </c>
       <c r="I8">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J8">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.251791</v>
+        <v>51.196146</v>
       </c>
       <c r="N8">
-        <v>104.503582</v>
+        <v>102.392292</v>
       </c>
       <c r="O8">
-        <v>0.5844836378714965</v>
+        <v>0.8805216284043814</v>
       </c>
       <c r="P8">
-        <v>0.4905863370482637</v>
+        <v>0.8725157132608572</v>
       </c>
       <c r="Q8">
-        <v>10987.89508612882</v>
+        <v>10765.90620716013</v>
       </c>
       <c r="R8">
-        <v>65927.37051677292</v>
+        <v>64595.43724296077</v>
       </c>
       <c r="S8">
-        <v>0.2248283342202024</v>
+        <v>0.2428448337733461</v>
       </c>
       <c r="T8">
-        <v>0.2026851113381591</v>
+        <v>0.2584221673608668</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>630.862304</v>
       </c>
       <c r="I9">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J9">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.809217</v>
       </c>
       <c r="O9">
-        <v>0.01047454604143267</v>
+        <v>0.01610522484369085</v>
       </c>
       <c r="P9">
-        <v>0.01318771521155813</v>
+        <v>0.02393818837905812</v>
       </c>
       <c r="Q9">
         <v>196.9143454506631</v>
@@ -1013,10 +1013,10 @@
         <v>1772.229109055968</v>
       </c>
       <c r="S9">
-        <v>0.00402915425790907</v>
+        <v>0.004441765567003541</v>
       </c>
       <c r="T9">
-        <v>0.005448487501778162</v>
+        <v>0.00709002534807007</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>630.862304</v>
       </c>
       <c r="I10">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J10">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01428866666666667</v>
+        <v>0.02709666666666667</v>
       </c>
       <c r="N10">
-        <v>0.042866</v>
+        <v>0.08129</v>
       </c>
       <c r="O10">
-        <v>0.0001598316864137063</v>
+        <v>0.0004660351007215281</v>
       </c>
       <c r="P10">
-        <v>0.0002012320871825319</v>
+        <v>0.0006926966956748569</v>
       </c>
       <c r="Q10">
-        <v>3.004727058140444</v>
+        <v>5.698088521351111</v>
       </c>
       <c r="R10">
-        <v>27.042543523264</v>
+        <v>51.28279669216</v>
       </c>
       <c r="S10">
-        <v>6.148109114373511E-05</v>
+        <v>0.0001285308763764842</v>
       </c>
       <c r="T10">
-        <v>8.313877683753966E-05</v>
+        <v>0.0002051632752274445</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>630.862304</v>
       </c>
       <c r="I11">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J11">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.925121</v>
+        <v>5.8798265</v>
       </c>
       <c r="N11">
-        <v>5.850242</v>
+        <v>11.759653</v>
       </c>
       <c r="O11">
-        <v>0.03272012940751274</v>
+        <v>0.1011270341426723</v>
       </c>
       <c r="P11">
-        <v>0.02746364037192437</v>
+        <v>0.1002075627430547</v>
       </c>
       <c r="Q11">
-        <v>615.1161911795946</v>
+        <v>1236.453630970085</v>
       </c>
       <c r="R11">
-        <v>3690.697147077568</v>
+        <v>7418.721785820512</v>
       </c>
       <c r="S11">
-        <v>0.01258617301409884</v>
+        <v>0.02789048787009505</v>
       </c>
       <c r="T11">
-        <v>0.01134656753799286</v>
+        <v>0.02967952915510202</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>630.862304</v>
       </c>
       <c r="I12">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J12">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.198649</v>
+        <v>0.07041833333333333</v>
       </c>
       <c r="N12">
-        <v>99.59594700000001</v>
+        <v>0.211255</v>
       </c>
       <c r="O12">
-        <v>0.3713569768343237</v>
+        <v>0.001211123695447489</v>
       </c>
       <c r="P12">
-        <v>0.467547713566249</v>
+        <v>0.001800167799788312</v>
       </c>
       <c r="Q12">
-        <v>6981.258732609099</v>
+        <v>14.80809067016889</v>
       </c>
       <c r="R12">
-        <v>62831.32859348189</v>
+        <v>133.27281603152</v>
       </c>
       <c r="S12">
-        <v>0.1428467198958059</v>
+        <v>0.0003340237457118239</v>
       </c>
       <c r="T12">
-        <v>0.193166733811329</v>
+        <v>0.0005331746550396578</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>630.862304</v>
       </c>
       <c r="I13">
-        <v>0.3846614680933682</v>
+        <v>0.2757965573354652</v>
       </c>
       <c r="J13">
-        <v>0.4131487080493621</v>
+        <v>0.2961805311162413</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.07195466666666667</v>
+        <v>0.03308066666666667</v>
       </c>
       <c r="N13">
-        <v>0.215864</v>
+        <v>0.099242</v>
       </c>
       <c r="O13">
-        <v>0.0008048781588207042</v>
+        <v>0.0005689538130865529</v>
       </c>
       <c r="P13">
-        <v>0.001013361714822238</v>
+        <v>0.0008456711215667874</v>
       </c>
       <c r="Q13">
-        <v>15.13116226562844</v>
+        <v>6.956448530396444</v>
       </c>
       <c r="R13">
-        <v>136.180460390656</v>
+        <v>62.608036773568</v>
       </c>
       <c r="S13">
-        <v>0.0003096056142082592</v>
+        <v>0.000156915502932157</v>
       </c>
       <c r="T13">
-        <v>0.0004186690832654939</v>
+        <v>0.0002504713219353186</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H14">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I14">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J14">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>52.251791</v>
+        <v>51.196146</v>
       </c>
       <c r="N14">
-        <v>104.503582</v>
+        <v>102.392292</v>
       </c>
       <c r="O14">
-        <v>0.5844836378714965</v>
+        <v>0.8805216284043814</v>
       </c>
       <c r="P14">
-        <v>0.4905863370482637</v>
+        <v>0.8725157132608572</v>
       </c>
       <c r="Q14">
-        <v>6787.245172736543</v>
+        <v>6734.960842448858</v>
       </c>
       <c r="R14">
-        <v>40723.47103641926</v>
+        <v>40409.76505469315</v>
       </c>
       <c r="S14">
-        <v>0.1388769199349977</v>
+        <v>0.1519194403873522</v>
       </c>
       <c r="T14">
-        <v>0.1251990060636952</v>
+        <v>0.1616643452493266</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H15">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I15">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J15">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.809217</v>
       </c>
       <c r="O15">
-        <v>0.01047454604143267</v>
+        <v>0.01610522484369085</v>
       </c>
       <c r="P15">
-        <v>0.01318771521155813</v>
+        <v>0.02393818837905812</v>
       </c>
       <c r="Q15">
-        <v>121.6343922222011</v>
+        <v>123.1861378324692</v>
       </c>
       <c r="R15">
-        <v>1094.70952999981</v>
+        <v>1108.675240492223</v>
       </c>
       <c r="S15">
-        <v>0.00248881679091813</v>
+        <v>0.002778690115766634</v>
       </c>
       <c r="T15">
-        <v>0.003365541826281473</v>
+        <v>0.004435394677641142</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H16">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I16">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J16">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.01428866666666667</v>
+        <v>0.02709666666666667</v>
       </c>
       <c r="N16">
-        <v>0.042866</v>
+        <v>0.08129</v>
       </c>
       <c r="O16">
-        <v>0.0001598316864137063</v>
+        <v>0.0004660351007215281</v>
       </c>
       <c r="P16">
-        <v>0.0002012320871825319</v>
+        <v>0.0006926966956748569</v>
       </c>
       <c r="Q16">
-        <v>1.856026023264445</v>
+        <v>3.564623574612223</v>
       </c>
       <c r="R16">
-        <v>16.70423420938</v>
+        <v>32.08161217151</v>
       </c>
       <c r="S16">
-        <v>3.797699521236578E-05</v>
+        <v>8.040664694492084E-05</v>
       </c>
       <c r="T16">
-        <v>5.135499177364427E-05</v>
+        <v>0.0001283465226593205</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H17">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I17">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J17">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.925121</v>
+        <v>5.8798265</v>
       </c>
       <c r="N17">
-        <v>5.850242</v>
+        <v>11.759653</v>
       </c>
       <c r="O17">
-        <v>0.03272012940751274</v>
+        <v>0.1011270341426723</v>
       </c>
       <c r="P17">
-        <v>0.02746364037192437</v>
+        <v>0.1002075627430547</v>
       </c>
       <c r="Q17">
-        <v>379.9585240421767</v>
+        <v>773.5035609495512</v>
       </c>
       <c r="R17">
-        <v>2279.75114425306</v>
+        <v>4641.021365697307</v>
       </c>
       <c r="S17">
-        <v>0.007774504703909199</v>
+        <v>0.0174477967824907</v>
       </c>
       <c r="T17">
-        <v>0.007008797876728133</v>
+        <v>0.01856698942342535</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H18">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I18">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J18">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.198649</v>
+        <v>0.07041833333333333</v>
       </c>
       <c r="N18">
-        <v>99.59594700000001</v>
+        <v>0.211255</v>
       </c>
       <c r="O18">
-        <v>0.3713569768343237</v>
+        <v>0.001211123695447489</v>
       </c>
       <c r="P18">
-        <v>0.467547713566249</v>
+        <v>0.001800167799788312</v>
       </c>
       <c r="Q18">
-        <v>4312.337737219857</v>
+        <v>9.263680074482778</v>
       </c>
       <c r="R18">
-        <v>38811.03963497871</v>
+        <v>83.37312067034502</v>
       </c>
       <c r="S18">
-        <v>0.08823670980240834</v>
+        <v>0.000208959357858891</v>
       </c>
       <c r="T18">
-        <v>0.1193194848801687</v>
+        <v>0.0003335446505645805</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.8949766666667</v>
+        <v>131.5521063333333</v>
       </c>
       <c r="H19">
-        <v>389.68493</v>
+        <v>394.6563190000001</v>
       </c>
       <c r="I19">
-        <v>0.2376061722458875</v>
+        <v>0.172533456858578</v>
       </c>
       <c r="J19">
-        <v>0.255202798384045</v>
+        <v>0.1852853109603467</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.07195466666666667</v>
+        <v>0.03308066666666667</v>
       </c>
       <c r="N19">
-        <v>0.215864</v>
+        <v>0.099242</v>
       </c>
       <c r="O19">
-        <v>0.0008048781588207042</v>
+        <v>0.0005689538130865529</v>
       </c>
       <c r="P19">
-        <v>0.001013361714822238</v>
+        <v>0.0008456711215667874</v>
       </c>
       <c r="Q19">
-        <v>9.346549747724445</v>
+        <v>4.351831378910889</v>
       </c>
       <c r="R19">
-        <v>84.11894772952</v>
+        <v>39.16648241019801</v>
       </c>
       <c r="S19">
-        <v>0.000191244018441705</v>
+        <v>9.816356816469226E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002586127453978899</v>
+        <v>0.0001566904367296874</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H20">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I20">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J20">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>52.251791</v>
+        <v>51.196146</v>
       </c>
       <c r="N20">
-        <v>104.503582</v>
+        <v>102.392292</v>
       </c>
       <c r="O20">
-        <v>0.5844836378714965</v>
+        <v>0.8805216284043814</v>
       </c>
       <c r="P20">
-        <v>0.4905863370482637</v>
+        <v>0.8725157132608572</v>
       </c>
       <c r="Q20">
-        <v>4869.40872524472</v>
+        <v>6468.241985338778</v>
       </c>
       <c r="R20">
-        <v>19477.63490097888</v>
+        <v>25872.96794135511</v>
       </c>
       <c r="S20">
-        <v>0.09963519343355828</v>
+        <v>0.1459031055547084</v>
       </c>
       <c r="T20">
-        <v>0.05988145086879401</v>
+        <v>0.1035080608915892</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H21">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I21">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J21">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.809217</v>
       </c>
       <c r="O21">
-        <v>0.01047454604143267</v>
+        <v>0.01610522484369085</v>
       </c>
       <c r="P21">
-        <v>0.01318771521155813</v>
+        <v>0.02393818837905812</v>
       </c>
       <c r="Q21">
-        <v>87.26479679204233</v>
+        <v>118.3077032486485</v>
       </c>
       <c r="R21">
-        <v>523.588780752254</v>
+        <v>709.846219491891</v>
       </c>
       <c r="S21">
-        <v>0.001785564818832975</v>
+        <v>0.002668648042875996</v>
       </c>
       <c r="T21">
-        <v>0.001609705490911124</v>
+        <v>0.002839829039999296</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H22">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I22">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J22">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.01428866666666667</v>
+        <v>0.02709666666666667</v>
       </c>
       <c r="N22">
-        <v>0.042866</v>
+        <v>0.08129</v>
       </c>
       <c r="O22">
-        <v>0.0001598316864137063</v>
+        <v>0.0004660351007215281</v>
       </c>
       <c r="P22">
-        <v>0.0002012320871825319</v>
+        <v>0.0006926966956748569</v>
       </c>
       <c r="Q22">
-        <v>1.331578436015333</v>
+        <v>3.423456855445</v>
       </c>
       <c r="R22">
-        <v>7.989470616091999</v>
+        <v>20.54074113267</v>
       </c>
       <c r="S22">
-        <v>2.724603386783373E-05</v>
+        <v>7.722237171617204E-05</v>
       </c>
       <c r="T22">
-        <v>2.456258650485037E-05</v>
+        <v>8.217581719801026E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H23">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I23">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J23">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.925121</v>
+        <v>5.8798265</v>
       </c>
       <c r="N23">
-        <v>5.850242</v>
+        <v>11.759653</v>
       </c>
       <c r="O23">
-        <v>0.03272012940751274</v>
+        <v>0.1011270341426723</v>
       </c>
       <c r="P23">
-        <v>0.02746364037192437</v>
+        <v>0.1002075627430547</v>
       </c>
       <c r="Q23">
-        <v>272.595626813951</v>
+        <v>742.8711652202797</v>
       </c>
       <c r="R23">
-        <v>1090.382507255804</v>
+        <v>2971.484660881119</v>
       </c>
       <c r="S23">
-        <v>0.005577703482959338</v>
+        <v>0.01675682670474593</v>
       </c>
       <c r="T23">
-        <v>0.003352238958599096</v>
+        <v>0.01188779794857957</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H24">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I24">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J24">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.198649</v>
+        <v>0.07041833333333333</v>
       </c>
       <c r="N24">
-        <v>99.59594700000001</v>
+        <v>0.211255</v>
       </c>
       <c r="O24">
-        <v>0.3713569768343237</v>
+        <v>0.001211123695447489</v>
       </c>
       <c r="P24">
-        <v>0.467547713566249</v>
+        <v>0.001800167799788312</v>
       </c>
       <c r="Q24">
-        <v>3093.822967846919</v>
+        <v>8.8968185262275</v>
       </c>
       <c r="R24">
-        <v>18562.93780708151</v>
+        <v>53.380911157365</v>
       </c>
       <c r="S24">
-        <v>0.06330412319929488</v>
+        <v>0.0002006841202718652</v>
       </c>
       <c r="T24">
-        <v>0.05706933382447612</v>
+        <v>0.0002135570459117438</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>93.19123099999999</v>
+        <v>126.3423615</v>
       </c>
       <c r="H25">
-        <v>186.382462</v>
+        <v>252.684723</v>
       </c>
       <c r="I25">
-        <v>0.1704670361627196</v>
+        <v>0.1657007628751875</v>
       </c>
       <c r="J25">
-        <v>0.1220609836569967</v>
+        <v>0.1186317441834349</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.07195466666666667</v>
+        <v>0.03308066666666667</v>
       </c>
       <c r="N25">
-        <v>0.215864</v>
+        <v>0.099242</v>
       </c>
       <c r="O25">
-        <v>0.0008048781588207042</v>
+        <v>0.0005689538130865529</v>
       </c>
       <c r="P25">
-        <v>0.001013361714822238</v>
+        <v>0.0008456711215667874</v>
       </c>
       <c r="Q25">
-        <v>6.705543962861332</v>
+        <v>4.179489546661</v>
       </c>
       <c r="R25">
-        <v>40.23326377716799</v>
+        <v>25.076937279966</v>
       </c>
       <c r="S25">
-        <v>0.0001372051942062721</v>
+        <v>9.427608086918865E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001236919277115435</v>
+        <v>0.0001003234401570296</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H26">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I26">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J26">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>52.251791</v>
+        <v>51.196146</v>
       </c>
       <c r="N26">
-        <v>104.503582</v>
+        <v>102.392292</v>
       </c>
       <c r="O26">
-        <v>0.5844836378714965</v>
+        <v>0.8805216284043814</v>
       </c>
       <c r="P26">
-        <v>0.4905863370482637</v>
+        <v>0.8725157132608572</v>
       </c>
       <c r="Q26">
-        <v>899.8560301019213</v>
+        <v>6175.21129562655</v>
       </c>
       <c r="R26">
-        <v>5399.136180611527</v>
+        <v>37051.2677737593</v>
       </c>
       <c r="S26">
-        <v>0.01841236476140189</v>
+        <v>0.1392932588995027</v>
       </c>
       <c r="T26">
-        <v>0.01659894076343781</v>
+        <v>0.148228254660605</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H27">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I27">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J27">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.809217</v>
       </c>
       <c r="O27">
-        <v>0.01047454604143267</v>
+        <v>0.01610522484369085</v>
       </c>
       <c r="P27">
-        <v>0.01318771521155813</v>
+        <v>0.02393818837905812</v>
       </c>
       <c r="Q27">
-        <v>16.12634265056311</v>
+        <v>112.948010775825</v>
       </c>
       <c r="R27">
-        <v>145.137083855068</v>
+        <v>1016.532096982425</v>
       </c>
       <c r="S27">
-        <v>0.0003299684540824712</v>
+        <v>0.002547750312337211</v>
       </c>
       <c r="T27">
-        <v>0.0004462050551974619</v>
+        <v>0.004066764448176439</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H28">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I28">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J28">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01428866666666667</v>
+        <v>0.02709666666666667</v>
       </c>
       <c r="N28">
-        <v>0.042866</v>
+        <v>0.08129</v>
       </c>
       <c r="O28">
-        <v>0.0001598316864137063</v>
+        <v>0.0004660351007215281</v>
       </c>
       <c r="P28">
-        <v>0.0002012320871825319</v>
+        <v>0.0006926966956748569</v>
       </c>
       <c r="Q28">
-        <v>0.2460727683404444</v>
+        <v>3.26836403025</v>
       </c>
       <c r="R28">
-        <v>2.214654915064</v>
+        <v>29.41527627225</v>
       </c>
       <c r="S28">
-        <v>5.035007175557888E-06</v>
+        <v>7.372396752899183E-05</v>
       </c>
       <c r="T28">
-        <v>6.808668001117179E-06</v>
+        <v>0.0001176795106936426</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H29">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I29">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J29">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.925121</v>
+        <v>5.8798265</v>
       </c>
       <c r="N29">
-        <v>5.850242</v>
+        <v>11.759653</v>
       </c>
       <c r="O29">
-        <v>0.03272012940751274</v>
+        <v>0.1011270341426723</v>
       </c>
       <c r="P29">
-        <v>0.02746364037192437</v>
+        <v>0.1002075627430547</v>
       </c>
       <c r="Q29">
-        <v>50.37507270569466</v>
+        <v>709.2168816598875</v>
       </c>
       <c r="R29">
-        <v>302.250436234168</v>
+        <v>4255.301289959325</v>
       </c>
       <c r="S29">
-        <v>0.001030747344588373</v>
+        <v>0.01599769238388875</v>
       </c>
       <c r="T29">
-        <v>0.0009292295876496937</v>
+        <v>0.01702386776930775</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H30">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I30">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J30">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>33.198649</v>
+        <v>0.07041833333333333</v>
       </c>
       <c r="N30">
-        <v>99.59594700000001</v>
+        <v>0.211255</v>
       </c>
       <c r="O30">
-        <v>0.3713569768343237</v>
+        <v>0.001211123695447489</v>
       </c>
       <c r="P30">
-        <v>0.467547713566249</v>
+        <v>0.001800167799788312</v>
       </c>
       <c r="Q30">
-        <v>571.7316846399988</v>
+        <v>8.493766062375</v>
       </c>
       <c r="R30">
-        <v>5145.585161759988</v>
+        <v>76.443894561375</v>
       </c>
       <c r="S30">
-        <v>0.01169846283304911</v>
+        <v>0.0001915925299586317</v>
       </c>
       <c r="T30">
-        <v>0.01581943118975091</v>
+        <v>0.0003058234104020848</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>17.22153466666667</v>
+        <v>120.618675</v>
       </c>
       <c r="H31">
-        <v>51.664604</v>
+        <v>361.856025</v>
       </c>
       <c r="I31">
-        <v>0.03150193361862766</v>
+        <v>0.1581940231859154</v>
       </c>
       <c r="J31">
-        <v>0.03383490225861063</v>
+        <v>0.1698860575319965</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.07195466666666667</v>
+        <v>0.03308066666666667</v>
       </c>
       <c r="N31">
-        <v>0.215864</v>
+        <v>0.099242</v>
       </c>
       <c r="O31">
-        <v>0.0008048781588207042</v>
+        <v>0.0005689538130865529</v>
       </c>
       <c r="P31">
-        <v>0.001013361714822238</v>
+        <v>0.0008456711215667874</v>
       </c>
       <c r="Q31">
-        <v>1.239169786428445</v>
+        <v>3.99014618145</v>
       </c>
       <c r="R31">
-        <v>11.152528077856</v>
+        <v>35.91131563304999</v>
       </c>
       <c r="S31">
-        <v>2.535521833025307E-05</v>
+        <v>9.000509269912914E-05</v>
       </c>
       <c r="T31">
-        <v>3.42869945736285E-05</v>
+        <v>0.0001436677328116433</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H32">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I32">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J32">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>52.251791</v>
+        <v>51.196146</v>
       </c>
       <c r="N32">
-        <v>104.503582</v>
+        <v>102.392292</v>
       </c>
       <c r="O32">
-        <v>0.5844836378714965</v>
+        <v>0.8805216284043814</v>
       </c>
       <c r="P32">
-        <v>0.4905863370482637</v>
+        <v>0.8725157132608572</v>
       </c>
       <c r="Q32">
-        <v>3981.284424013492</v>
+        <v>7299.967277803973</v>
       </c>
       <c r="R32">
-        <v>23887.70654408095</v>
+        <v>43799.80366682383</v>
       </c>
       <c r="S32">
-        <v>0.08146287692879209</v>
+        <v>0.1646642006736186</v>
       </c>
       <c r="T32">
-        <v>0.07343964157145508</v>
+        <v>0.1752266208987465</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H33">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I33">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J33">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.809217</v>
       </c>
       <c r="O33">
-        <v>0.01047454604143267</v>
+        <v>0.01610522484369085</v>
       </c>
       <c r="P33">
-        <v>0.01318771521155813</v>
+        <v>0.02393818837905812</v>
       </c>
       <c r="Q33">
-        <v>71.34869875097623</v>
+        <v>133.5204162715077</v>
       </c>
       <c r="R33">
-        <v>642.138288758786</v>
+        <v>1201.683746443569</v>
       </c>
       <c r="S33">
-        <v>0.001459898275622556</v>
+        <v>0.003011798790633843</v>
       </c>
       <c r="T33">
-        <v>0.001974170508111754</v>
+        <v>0.004807486898343032</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H34">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I34">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J34">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.01428866666666667</v>
+        <v>0.02709666666666667</v>
       </c>
       <c r="N34">
-        <v>0.042866</v>
+        <v>0.08129</v>
       </c>
       <c r="O34">
-        <v>0.0001598316864137063</v>
+        <v>0.0004660351007215281</v>
       </c>
       <c r="P34">
-        <v>0.0002012320871825319</v>
+        <v>0.0006926966956748569</v>
       </c>
       <c r="Q34">
-        <v>1.088713801980889</v>
+        <v>3.863665440836666</v>
       </c>
       <c r="R34">
-        <v>9.798424217828</v>
+        <v>34.77298896753</v>
       </c>
       <c r="S34">
-        <v>2.227666979191585E-05</v>
+        <v>8.715208675250973E-05</v>
       </c>
       <c r="T34">
-        <v>3.012397867474048E-05</v>
+        <v>0.0001391137138805244</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H35">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I35">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J35">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.925121</v>
+        <v>5.8798265</v>
       </c>
       <c r="N35">
-        <v>5.850242</v>
+        <v>11.759653</v>
       </c>
       <c r="O35">
-        <v>0.03272012940751274</v>
+        <v>0.1011270341426723</v>
       </c>
       <c r="P35">
-        <v>0.02746364037192437</v>
+        <v>0.1002075627430547</v>
       </c>
       <c r="Q35">
-        <v>222.8773110505393</v>
+        <v>838.3939886640034</v>
       </c>
       <c r="R35">
-        <v>1337.263866303236</v>
+        <v>5030.36393198402</v>
       </c>
       <c r="S35">
-        <v>0.004560394341790604</v>
+        <v>0.01891151983827183</v>
       </c>
       <c r="T35">
-        <v>0.004111243532171677</v>
+        <v>0.02012460330638762</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H36">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I36">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J36">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>33.198649</v>
+        <v>0.07041833333333333</v>
       </c>
       <c r="N36">
-        <v>99.59594700000001</v>
+        <v>0.211255</v>
       </c>
       <c r="O36">
-        <v>0.3713569768343237</v>
+        <v>0.001211123695447489</v>
       </c>
       <c r="P36">
-        <v>0.467547713566249</v>
+        <v>0.001800167799788312</v>
       </c>
       <c r="Q36">
-        <v>2529.545143476347</v>
+        <v>10.04082473494833</v>
       </c>
       <c r="R36">
-        <v>22765.90629128713</v>
+        <v>90.36742261453499</v>
       </c>
       <c r="S36">
-        <v>0.05175817720179519</v>
+        <v>0.0002264892863439714</v>
       </c>
       <c r="T36">
-        <v>0.06999081284744516</v>
+        <v>0.0003615262347869378</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>76.19421933333332</v>
+        <v>142.588219</v>
       </c>
       <c r="H37">
-        <v>228.582658</v>
+        <v>427.7646569999999</v>
       </c>
       <c r="I37">
-        <v>0.1393758039582664</v>
+        <v>0.187007559339583</v>
       </c>
       <c r="J37">
-        <v>0.1496976903460524</v>
+        <v>0.2008291864955316</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.07195466666666667</v>
+        <v>0.03308066666666667</v>
       </c>
       <c r="N37">
-        <v>0.215864</v>
+        <v>0.099242</v>
       </c>
       <c r="O37">
-        <v>0.0008048781588207042</v>
+        <v>0.0005689538130865529</v>
       </c>
       <c r="P37">
-        <v>0.001013361714822238</v>
+        <v>0.0008456711215667874</v>
       </c>
       <c r="Q37">
-        <v>5.482529654056888</v>
+        <v>4.716913343332666</v>
       </c>
       <c r="R37">
-        <v>49.342766886512</v>
+        <v>42.45222008999399</v>
       </c>
       <c r="S37">
-        <v>0.0001121805404740849</v>
+        <v>0.0001063986639622656</v>
       </c>
       <c r="T37">
-        <v>0.0001516979081940041</v>
+        <v>0.0001698354433870217</v>
       </c>
     </row>
   </sheetData>
